--- a/ValidInputBatch5.xlsx
+++ b/ValidInputBatch5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\1.Sudhakar\1.Scrapy\1.upwork\UP54-CONN\Scrapping Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D633B-EA8D-4A5E-974B-0F481189206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CD6EF-8821-49C5-A0B7-0BBE864A503E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AA24AB2-5F9A-4479-92CC-77BD8B9D82E0}"/>
   </bookViews>
@@ -2789,7 +2789,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3107,7 +3107,7 @@
   <dimension ref="A1:G701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
